--- a/Lista de presença.xlsx
+++ b/Lista de presença.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700666F4-5432-4BC0-8222-2809750633A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED3A16-3495-4EBB-B078-E48FD58DC515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
@@ -2369,10 +2369,10 @@
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="106" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2871,16 +2871,31 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="8" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2889,6 +2904,21 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2901,21 +2931,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2935,21 +2950,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3003,20 +3003,6 @@
     <cellStyle name="Warning Text" xfId="19" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3142,6 +3128,20 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3386,7 +3386,7 @@
   <dimension ref="B1:T49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3450,8 +3450,8 @@
       <c r="B4" s="46"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
       <c r="H4" s="48"/>
       <c r="J4" s="51"/>
       <c r="K4" s="153"/>
@@ -3487,30 +3487,30 @@
       <c r="B7" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="176">
+      <c r="C7" s="162">
         <v>45465</v>
       </c>
-      <c r="D7" s="158"/>
-      <c r="E7" s="177">
+      <c r="D7" s="163"/>
+      <c r="E7" s="154">
         <v>45472</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="178">
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="156">
         <v>45486</v>
       </c>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="179">
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158">
         <v>45493</v>
       </c>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="180">
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="160">
         <v>45500</v>
       </c>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
       <c r="Q7" s="151" t="s">
         <v>56</v>
       </c>
@@ -3621,7 +3621,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="G11" s="61">
+        <v>1</v>
+      </c>
       <c r="H11" s="70"/>
       <c r="I11" s="64"/>
       <c r="J11" s="64"/>
@@ -4347,26 +4349,6 @@
       <formula>(TEXT(TODAY(),"dddd"))="Segunda-feira"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G48">
-    <cfRule type="expression" dxfId="19" priority="4">
-      <formula>(TEXT(TODAY(),"dddd"))="Terça-feira"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J48">
-    <cfRule type="expression" dxfId="18" priority="5">
-      <formula>(TEXT(TODAY(),"dddd"))="Quarta-feira"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M48">
-    <cfRule type="expression" dxfId="17" priority="6">
-      <formula>(TEXT(TODAY(),"dddd"))="Quinta-feira"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9:P48">
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>(TEXT(TODAY(),"dddd"))="Sexta-feira"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C9:P48">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols2" showValue="0">
@@ -4375,11 +4357,31 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:G48">
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>(TEXT(TODAY(),"dddd"))="Terça-feira"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:J48">
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>(TEXT(TODAY(),"dddd"))="Quarta-feira"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M48">
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>(TEXT(TODAY(),"dddd"))="Quinta-feira"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:P48">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>(TEXT(TODAY(),"dddd"))="Sexta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="21">
@@ -4445,19 +4447,19 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="160" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
       <c r="K2" s="127" t="s">
         <v>41</v>
       </c>
@@ -4478,45 +4480,45 @@
       <c r="X2" s="52"/>
     </row>
     <row r="3" spans="1:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="161" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
       <c r="K3" s="48" t="s">
         <v>50</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
-      <c r="O3" s="159">
+      <c r="O3" s="164">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>45474</v>
       </c>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="162" t="s">
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
       <c r="W3" s="99"/>
       <c r="X3" s="52"/>
       <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="47"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
       <c r="K4" s="48"/>
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
@@ -4534,36 +4536,36 @@
       <c r="B5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="166" t="s">
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="168" t="s">
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="164" t="s">
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
       <c r="W5" s="36" t="s">
         <v>59</v>
       </c>
@@ -5759,20 +5761,20 @@
     <row r="47" spans="2:23" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B2:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:R5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="B2:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:F46">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>(TEXT(TODAY(),"dddd"))="Segunda-feira"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5784,30 +5786,30 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J46">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>(TEXT(TODAY(),"dddd"))="Terça-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:N46">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>(TEXT(TODAY(),"dddd"))="Quarta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:R46">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>(TEXT(TODAY(),"dddd"))="Quinta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:V46">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>(TEXT(TODAY(),"dddd"))="Sexta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,13 +5874,13 @@
       </c>
     </row>
     <row r="2" spans="2:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
       <c r="G2" s="127" t="s">
         <v>40</v>
       </c>
@@ -5893,12 +5895,12 @@
         <v>42</v>
       </c>
       <c r="P2" s="147"/>
-      <c r="Q2" s="159">
+      <c r="Q2" s="164">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>45474</v>
       </c>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
       <c r="T2" s="48"/>
       <c r="U2" s="47"/>
       <c r="V2" s="47"/>
@@ -5906,11 +5908,11 @@
       <c r="X2" s="52"/>
     </row>
     <row r="3" spans="2:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="127" t="s">
         <v>41</v>
       </c>
@@ -5921,15 +5923,15 @@
       <c r="K3" s="48"/>
       <c r="M3" s="100"/>
       <c r="N3" s="100"/>
-      <c r="O3" s="174" t="s">
+      <c r="O3" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="159" t="s">
+      <c r="P3" s="179"/>
+      <c r="Q3" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="51"/>
       <c r="U3" s="153"/>
       <c r="V3" s="153"/>
@@ -5942,46 +5944,46 @@
       <c r="Z4" s="54"/>
     </row>
     <row r="5" spans="2:26" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="170" t="s">
+      <c r="B5" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="171" t="s">
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172" t="s">
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="173" t="s">
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="175" t="s">
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="169" t="s">
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="174" t="s">
         <v>56</v>
       </c>
       <c r="Z5" s="125"/>
     </row>
     <row r="6" spans="2:26" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="169"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
@@ -6042,7 +6044,7 @@
       <c r="V6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="169"/>
+      <c r="W6" s="174"/>
       <c r="Z6" s="125"/>
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7182,7 +7184,7 @@
     <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:F46">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>(TEXT(TODAY(),"dddd"))="Segunda-feira"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7194,30 +7196,30 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J46">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>(TEXT(TODAY(),"dddd"))="Terça-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:N46">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>(TEXT(TODAY(),"dddd"))="Quarta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:R46">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>(TEXT(TODAY(),"dddd"))="Quinta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:V46">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>(TEXT(TODAY(),"dddd"))="Sexta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7258,6 +7260,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -7478,25 +7498,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68356C83-6F66-428B-8DD7-55F84E961A45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9910CB-9E39-4F60-8AC0-F4F658D22CEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1921F94-234F-4653-98B5-765231696E9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7513,22 +7533,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9910CB-9E39-4F60-8AC0-F4F658D22CEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68356C83-6F66-428B-8DD7-55F84E961A45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Lista de presença.xlsx
+++ b/Lista de presença.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED3A16-3495-4EBB-B078-E48FD58DC515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD448BA-3897-4D70-BC81-E5BF76917F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
   <si>
     <t>Lista de Aulas</t>
   </si>
@@ -252,19 +252,22 @@
   <si>
     <t>Miguel Espindola</t>
   </si>
+  <si>
+    <t>Miguel Souza</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,13 +446,6 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -914,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="115">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -1847,49 +1843,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4"/>
       </left>
       <right/>
@@ -2151,21 +2104,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="5"/>
       </left>
       <right style="thin">
@@ -2185,21 +2123,6 @@
       </left>
       <right style="thin">
         <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
         <color theme="2"/>
@@ -2366,57 +2289,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="106" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="107" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="108" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="109" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="110" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="109" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="111" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="112" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="101" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="102" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="103" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="104" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="105" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="104" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="106" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="107" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="108" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="113" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="114" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="109" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2548,9 +2482,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2561,9 +2492,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2572,78 +2500,75 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2662,18 +2587,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2704,8 +2617,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2786,20 +2699,20 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2853,8 +2766,14 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2862,12 +2781,6 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2877,12 +2790,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2892,7 +2799,7 @@
     <xf numFmtId="16" fontId="8" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="3" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3002,7 +2909,7 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="19" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3093,6 +3000,13 @@
         <i val="0"/>
         <color rgb="FF3F752B"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3386,137 +3300,148 @@
   <dimension ref="B1:T49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="42" customWidth="1"/>
     <col min="2" max="2" width="35.875" style="43" customWidth="1"/>
-    <col min="3" max="16" width="7.75" style="42" customWidth="1"/>
-    <col min="17" max="17" width="40.75" style="44" customWidth="1"/>
-    <col min="18" max="18" width="1.625" style="42" customWidth="1"/>
-    <col min="19" max="16384" width="9.125" style="42"/>
+    <col min="3" max="3" width="8.375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="0.125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="42" customWidth="1"/>
+    <col min="6" max="6" width="0.125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="42" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="42" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="42" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="42" customWidth="1"/>
+    <col min="12" max="12" width="7.75" style="42" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="42" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="42" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="42" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="42" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="42" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="42" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.75" style="42" customWidth="1"/>
+    <col min="20" max="16384" width="9.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R1" s="45" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row r="1" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="45"/>
-    </row>
-    <row r="3" spans="2:20" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="2:20" s="48" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="2:20" s="50" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="F3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="S3" s="49"/>
+    </row>
+    <row r="4" spans="2:20" s="48" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="H4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="S4" s="49"/>
     </row>
     <row r="5" spans="2:20" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="47"/>
-      <c r="H5" s="48"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="Q5" s="49"/>
-      <c r="T5" s="54"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="2:20" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="T6" s="54"/>
-    </row>
-    <row r="7" spans="2:20" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="162">
+      <c r="B6" s="52"/>
+      <c r="T6" s="51"/>
+    </row>
+    <row r="7" spans="2:20" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="153">
         <v>45465</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="154">
+      <c r="D7" s="154"/>
+      <c r="E7" s="147">
         <v>45472</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156">
-        <v>45486</v>
-      </c>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158">
-        <v>45493</v>
-      </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="160">
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="142">
         <v>45500</v>
       </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="151" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="150"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="149">
+        <v>45507</v>
+      </c>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="151">
+        <v>45490</v>
+      </c>
+      <c r="O7" s="151"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="142">
+        <v>45505</v>
+      </c>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+    </row>
+    <row r="8" spans="2:20" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="145"/>
       <c r="C8" s="18" t="s">
         <v>45</v>
       </c>
@@ -3559,783 +3484,937 @@
       <c r="P8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="152"/>
+      <c r="Q8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="58">
-        <v>1</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60">
-        <v>1</v>
-      </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
+      <c r="C9" s="54">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56">
+        <v>1</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57">
+        <v>0</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
     </row>
     <row r="10" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="58">
-        <v>1</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60">
-        <v>1</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="73"/>
+      <c r="C10" s="54">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57">
+        <v>1</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60">
+        <v>0</v>
+      </c>
+      <c r="K10" s="66">
+        <v>1</v>
+      </c>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
     </row>
     <row r="11" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="74">
+      <c r="C11" s="54">
         <v>0</v>
       </c>
-      <c r="E11" s="60">
-        <v>1</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61">
-        <v>1</v>
-      </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="73"/>
+      <c r="D11" s="68">
+        <v>0</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57">
+        <v>1</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60">
+        <v>1</v>
+      </c>
+      <c r="K11" s="66">
+        <v>1</v>
+      </c>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
     </row>
     <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="75">
-        <v>1</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="60">
-        <v>1</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="73"/>
+      <c r="C12" s="69">
+        <v>1</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="56">
+        <v>1</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57">
+        <v>0</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60">
+        <v>0</v>
+      </c>
+      <c r="K12" s="66">
+        <v>1</v>
+      </c>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
     </row>
     <row r="13" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="75">
-        <v>1</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="60">
-        <v>1</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="73"/>
+      <c r="C13" s="69">
+        <v>1</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="56">
+        <v>1</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57">
+        <v>0</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60">
+        <v>0</v>
+      </c>
+      <c r="K13" s="66">
+        <v>1</v>
+      </c>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
     </row>
     <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="75">
-        <v>1</v>
-      </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="60">
-        <v>1</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="73"/>
+      <c r="C14" s="69">
+        <v>1</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="56">
+        <v>1</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57">
+        <v>0</v>
+      </c>
+      <c r="H14" s="65"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60">
+        <v>0</v>
+      </c>
+      <c r="K14" s="66">
+        <v>1</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
     </row>
     <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75">
+      <c r="C15" s="69">
         <v>0</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61">
+      <c r="D15" s="69">
         <v>0</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="73"/>
+      <c r="E15" s="56">
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <v>0</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0</v>
+      </c>
+      <c r="H15" s="65"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60">
+        <v>0</v>
+      </c>
+      <c r="K15" s="66">
+        <v>0</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
     </row>
     <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75">
+      <c r="C16" s="69">
         <v>0</v>
       </c>
-      <c r="E16" s="60">
-        <v>1</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="73"/>
-    </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="73"/>
-    </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="86"/>
-    </row>
-    <row r="19" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="73"/>
-    </row>
-    <row r="20" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="73"/>
-    </row>
-    <row r="21" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="73"/>
-    </row>
-    <row r="22" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="73"/>
-    </row>
-    <row r="23" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="73"/>
-    </row>
-    <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="73"/>
-    </row>
-    <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="73"/>
-    </row>
-    <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="73"/>
-    </row>
-    <row r="27" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="73"/>
-    </row>
-    <row r="28" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="73"/>
-    </row>
-    <row r="29" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="73"/>
-    </row>
-    <row r="30" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="73"/>
-    </row>
-    <row r="31" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="73"/>
-    </row>
-    <row r="32" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="73"/>
-    </row>
-    <row r="33" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="73"/>
-    </row>
-    <row r="34" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="73"/>
-    </row>
-    <row r="35" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="73"/>
-    </row>
-    <row r="36" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="73"/>
-    </row>
-    <row r="37" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="73"/>
-    </row>
-    <row r="38" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="73"/>
-    </row>
-    <row r="39" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="73"/>
-    </row>
-    <row r="40" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="73"/>
-    </row>
-    <row r="41" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="73"/>
-    </row>
-    <row r="42" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="73"/>
-    </row>
-    <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="73"/>
-    </row>
-    <row r="44" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="86"/>
-    </row>
-    <row r="45" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="73"/>
-    </row>
-    <row r="46" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="73"/>
-    </row>
-    <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="73"/>
-    </row>
-    <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="76"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="73"/>
+      <c r="D16" s="69">
+        <v>0</v>
+      </c>
+      <c r="E16" s="56">
+        <v>1</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57">
+        <v>0</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60">
+        <v>0</v>
+      </c>
+      <c r="K16" s="66">
+        <v>1</v>
+      </c>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+    </row>
+    <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="69">
+        <v>0</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="56">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57">
+        <v>0</v>
+      </c>
+      <c r="H17" s="65"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60">
+        <v>1</v>
+      </c>
+      <c r="K17" s="66">
+        <v>0</v>
+      </c>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+    </row>
+    <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+    </row>
+    <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="53"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+    </row>
+    <row r="20" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="53"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+    </row>
+    <row r="21" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="53"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+    </row>
+    <row r="22" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+    </row>
+    <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="53"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+    </row>
+    <row r="24" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+    </row>
+    <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+    </row>
+    <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+    </row>
+    <row r="27" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+    </row>
+    <row r="28" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+    </row>
+    <row r="29" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+    </row>
+    <row r="30" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+    </row>
+    <row r="31" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="53"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+    </row>
+    <row r="32" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+    </row>
+    <row r="33" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+    </row>
+    <row r="34" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+    </row>
+    <row r="35" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="53"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+    </row>
+    <row r="36" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+    </row>
+    <row r="37" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="53"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+    </row>
+    <row r="38" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="53"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+    </row>
+    <row r="39" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="53"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+    </row>
+    <row r="40" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="53"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+    </row>
+    <row r="41" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="53"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+    </row>
+    <row r="42" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="53"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+    </row>
+    <row r="43" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="53"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+    </row>
+    <row r="44" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+    </row>
+    <row r="45" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="53"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+    </row>
+    <row r="46" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="53"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+    </row>
+    <row r="47" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+    </row>
+    <row r="48" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="70"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q7:S7"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
@@ -4345,73 +4424,87 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:D48">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>(TEXT(TODAY(),"dddd"))="Segunda-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:P48">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:S48">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G48">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>(TEXT(TODAY(),"dddd"))="Terça-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J48">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>(TEXT(TODAY(),"dddd"))="Quarta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:M48">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>(TEXT(TODAY(),"dddd"))="Quinta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:P48">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>(TEXT(TODAY(),"dddd"))="Sexta-feira"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:S48">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>(TEXT(TODAY(),"dddd"))="Quarta-feira"</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="21">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome do professor na próxima célula C5." sqref="H2" xr:uid="{7DE3C1FE-D574-4239-A36B-92F761A9FE7F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome do professor na próxima célula C5." sqref="H2 Q2" xr:uid="{7DE3C1FE-D574-4239-A36B-92F761A9FE7F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome do professor nesta célula." sqref="K2 E2" xr:uid="{E0A8DA12-590B-4732-AE21-9522AAA4B875}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome da matéria/aula na próxima célula T5." sqref="H3" xr:uid="{5C0A63C3-C349-479F-B1AD-E84A81C77622}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome da matéria/aula na próxima célula T5." sqref="H3 Q3" xr:uid="{5C0A63C3-C349-479F-B1AD-E84A81C77622}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome do matéria/aula nesta célula." sqref="K3 E3" xr:uid="{469BFEA5-6C7C-479B-AEE1-A630D08B7C68}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da semana na próxima célula C7." sqref="H4" xr:uid="{3F9A7F20-51B2-4B0C-A047-9B67FBC45F58}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o intervalo de tempo na próxima célula T7." sqref="H5" xr:uid="{7A418C4F-1148-43EF-83B7-8864C555324B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da semana na próxima célula C7." sqref="H4 Q4" xr:uid="{3F9A7F20-51B2-4B0C-A047-9B67FBC45F58}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o intervalo de tempo na próxima célula T7." sqref="H5 Q5" xr:uid="{7A418C4F-1148-43EF-83B7-8864C555324B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o intervalo de tempo nesta célula." sqref="K5" xr:uid="{A4B48CA1-C94E-4D80-A500-FBD1D1778C01}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Presente" sqref="C8 E8 H8 K8 N8" xr:uid="{6E2D87B2-66DC-45CA-BC8A-B9E710B46C83}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ausente – injustificado" sqref="I8" xr:uid="{F2550CAF-2D3E-42CB-BF95-92780FB9F9BA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Presente" sqref="C8 E8 H8 K8 N8 Q8" xr:uid="{6E2D87B2-66DC-45CA-BC8A-B9E710B46C83}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ausente – injustificado" sqref="I8 R8" xr:uid="{F2550CAF-2D3E-42CB-BF95-92780FB9F9BA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ausente – justificado" sqref="M8" xr:uid="{D57CB29F-2A41-4EA3-934F-74E7EFEDC284}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da semana (por exemplo, segunda-feira) nesta célula." sqref="K4 Q4" xr:uid="{30B99CA7-B82D-482D-9FD6-2384F1AB83BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da semana (por exemplo, segunda-feira) nesta célula." sqref="K4" xr:uid="{30B99CA7-B82D-482D-9FD6-2384F1AB83BD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes dos alunos nas células abaixo." sqref="B7:B8" xr:uid="{19C3C52C-7994-0F40-A401-C979C8ED39BA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lista para presença de classe" prompt="Essa lista de classe imprimível ajuda você a acompanhar a presença semanal de cada aluno. A cada dia de aula, marque alunos como presente (P), ausência não justificada (A), ausência justificada(J) ou Atrasado (T)." sqref="A1" xr:uid="{4B5160C0-7F0D-5448-ADDA-329424CA4FFC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ausência não justificada" sqref="D8 F8 L8 O8" xr:uid="{A79BF3FA-5E6A-A74F-90DF-AFAFEC8BD6FC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ausência justificada" sqref="G8 J8 P8" xr:uid="{F29DA948-1C85-FF4B-8293-717F9D8F5DBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ausência justificada" sqref="G8 J8 P8 S8" xr:uid="{F29DA948-1C85-FF4B-8293-717F9D8F5DBC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a hora nesta coluna." sqref="E5" xr:uid="{8AB0999D-4BA0-A047-80B1-954A7F46B2FD}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{FA600F82-C422-F146-B276-874A9A9A92B7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data para o início da semana nesta célula." sqref="E4:F4" xr:uid="{670E81F1-5491-8B4D-9CAE-FE82C59709B7}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrada 1 para tique ✔_x000a_Entrada 0 para cruz   ✖" promptTitle="Presente                        " prompt="1 para tique ✔_x000a_0 para cruz   ✖" sqref="C9:C48 E9:E48 H9:H48 K9:K48 N9:N48" xr:uid="{0006C20D-3C6A-4026-A527-F6A2EB1DC362}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrada 1 para tique ✔_x000a_Entrada 0 para cruz   ✖" promptTitle="Presente                        " prompt="1 para tique ✔_x000a_0 para cruz   ✖" sqref="C9:C48 E9:E48 H9:H48 K9:K48 N9:N48 Q9:Q48" xr:uid="{0006C20D-3C6A-4026-A527-F6A2EB1DC362}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrada 1 para tique ✔_x000a_Entrada 0 para cruz   ✖" promptTitle="Ausência não justificada        " prompt="1 para tique ✔_x000a_0 para cruz   ✖" sqref="D9:D48 F9:F48 I9:I48 L9:L48 O9:O48" xr:uid="{78819555-271D-4026-9A4A-AECB0ED0B338}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrada 1 para tique ✔_x000a_Entrada 0 para cruz   ✖" promptTitle="Ausência não justificada        " prompt="1 para tique ✔_x000a_0 para cruz   ✖" sqref="D9:D48 F9:F48 I9:I48 L9:L48 O9:O48 R9:R48" xr:uid="{78819555-271D-4026-9A4A-AECB0ED0B338}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrada 1 para tique ✔_x000a_Entrada 0 para cruz   ✖" promptTitle="Ausência justificada            " prompt="1 para tique ✔_x000a_0 para cruz   ✖" sqref="G9:G48 J9:J48 M9:M48 P9:P48" xr:uid="{EB230210-C82D-43D1-A91D-9D2398C8290A}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrada 1 para tique ✔_x000a_Entrada 0 para cruz   ✖" promptTitle="Ausência justificada            " prompt="1 para tique ✔_x000a_0 para cruz   ✖" sqref="G9:G48 J9:J48 M9:M48 P9:P48 S9:S48" xr:uid="{EB230210-C82D-43D1-A91D-9D2398C8290A}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4436,144 +4529,144 @@
     <col min="1" max="1" width="4" style="42" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="43" customWidth="1"/>
     <col min="3" max="22" width="7.75" style="42" customWidth="1"/>
-    <col min="23" max="23" width="40.75" style="45" customWidth="1"/>
+    <col min="23" max="23" width="40.75" style="44" customWidth="1"/>
     <col min="24" max="24" width="1.625" style="42" customWidth="1"/>
     <col min="25" max="16384" width="9.125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="X1" s="45" t="s">
+      <c r="X1" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="173" t="s">
+    <row r="2" spans="1:26" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="170" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="127" t="s">
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="127" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="127" t="s">
+      <c r="P2" s="120"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="130"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="52"/>
-    </row>
-    <row r="3" spans="1:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="171" t="s">
+      <c r="T2" s="123"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="50"/>
+    </row>
+    <row r="3" spans="1:26" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="48" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="164">
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="155">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45474</v>
-      </c>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="172" t="s">
+        <v>45502</v>
+      </c>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="52"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="50"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="47"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="K4" s="48"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="52"/>
+    <row r="4" spans="1:26" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="46"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="K4" s="47"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="50"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" s="97" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="90" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167" t="s">
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168" t="s">
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="169" t="s">
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="165" t="s">
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
       <c r="W5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="Z5" s="125"/>
-    </row>
-    <row r="6" spans="1:26" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="148"/>
+      <c r="Z5" s="118"/>
+    </row>
+    <row r="6" spans="1:26" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="119"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="27" t="s">
         <v>45</v>
       </c>
@@ -4635,1127 +4728,1127 @@
         <v>48</v>
       </c>
       <c r="W6" s="37"/>
-      <c r="Z6" s="125"/>
+      <c r="Z6" s="118"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="103">
-        <v>1</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
+      <c r="C7" s="96">
+        <v>1</v>
+      </c>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="39"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="103">
-        <v>1</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
+      <c r="C8" s="96">
+        <v>1</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115">
-        <v>1</v>
-      </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
+      <c r="C9" s="108">
+        <v>1</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="115">
-        <v>1</v>
-      </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
+      <c r="C10" s="108">
+        <v>1</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116">
-        <v>1</v>
-      </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109">
+        <v>1</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="115">
-        <v>1</v>
-      </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
+      <c r="C12" s="108">
+        <v>1</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="40"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116">
-        <v>1</v>
-      </c>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109">
+        <v>1</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="40"/>
     </row>
     <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="115">
-        <v>1</v>
-      </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
+      <c r="C14" s="108">
+        <v>1</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="115">
-        <v>1</v>
-      </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
+      <c r="C15" s="108">
+        <v>1</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="40"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="115">
-        <v>1</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
+      <c r="C16" s="108">
+        <v>1</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="40"/>
     </row>
     <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="115">
-        <v>1</v>
-      </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
+      <c r="C17" s="108">
+        <v>1</v>
+      </c>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
       <c r="W17" s="40"/>
     </row>
     <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="115">
-        <v>1</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
+      <c r="C18" s="108">
+        <v>1</v>
+      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
       <c r="W18" s="40"/>
     </row>
     <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="115">
-        <v>1</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
+      <c r="C19" s="108">
+        <v>1</v>
+      </c>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
       <c r="W19" s="40"/>
     </row>
     <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="115">
-        <v>1</v>
-      </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
+      <c r="C20" s="108">
+        <v>1</v>
+      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
       <c r="W20" s="40"/>
     </row>
     <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116">
-        <v>1</v>
-      </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109">
+        <v>1</v>
+      </c>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
       <c r="W21" s="40"/>
     </row>
     <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="115">
-        <v>1</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
+      <c r="C22" s="108">
+        <v>1</v>
+      </c>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
       <c r="W22" s="40"/>
     </row>
     <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="115">
-        <v>1</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
+      <c r="C23" s="108">
+        <v>1</v>
+      </c>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
       <c r="W23" s="40"/>
     </row>
     <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="115">
-        <v>1</v>
-      </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
+      <c r="C24" s="108">
+        <v>1</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
       <c r="W24" s="40"/>
     </row>
     <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="115">
-        <v>1</v>
-      </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
+      <c r="C25" s="108">
+        <v>1</v>
+      </c>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
       <c r="W25" s="40"/>
     </row>
     <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="115">
-        <v>1</v>
-      </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
+      <c r="C26" s="108">
+        <v>1</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
       <c r="W26" s="40"/>
     </row>
     <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="115">
-        <v>1</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="113"/>
+      <c r="C27" s="108">
+        <v>1</v>
+      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
       <c r="W27" s="40"/>
     </row>
     <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="115">
-        <v>1</v>
-      </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="113"/>
+      <c r="C28" s="108">
+        <v>1</v>
+      </c>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
       <c r="W28" s="40"/>
     </row>
     <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="115">
-        <v>1</v>
-      </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
+      <c r="C29" s="108">
+        <v>1</v>
+      </c>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
       <c r="W29" s="40"/>
     </row>
     <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="115">
-        <v>1</v>
-      </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
+      <c r="C30" s="108">
+        <v>1</v>
+      </c>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
       <c r="W30" s="40"/>
     </row>
     <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="115">
-        <v>1</v>
-      </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
+      <c r="C31" s="108">
+        <v>1</v>
+      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
       <c r="W31" s="40"/>
     </row>
     <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="115">
-        <v>1</v>
-      </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
+      <c r="C32" s="108">
+        <v>1</v>
+      </c>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
       <c r="W32" s="40"/>
     </row>
     <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="115">
-        <v>1</v>
-      </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
+      <c r="C33" s="108">
+        <v>1</v>
+      </c>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
       <c r="W33" s="40"/>
     </row>
     <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="115">
-        <v>1</v>
-      </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
+      <c r="C34" s="108">
+        <v>1</v>
+      </c>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
       <c r="W34" s="40"/>
     </row>
     <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="115">
-        <v>1</v>
-      </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
+      <c r="C35" s="108">
+        <v>1</v>
+      </c>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
       <c r="W35" s="40"/>
     </row>
     <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="115">
-        <v>1</v>
-      </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
+      <c r="C36" s="108">
+        <v>1</v>
+      </c>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
       <c r="W36" s="40"/>
     </row>
     <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="115">
-        <v>1</v>
-      </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
+      <c r="C37" s="108">
+        <v>1</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="106"/>
       <c r="W37" s="40"/>
     </row>
     <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="115">
-        <v>1</v>
-      </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
+      <c r="C38" s="108">
+        <v>1</v>
+      </c>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="106"/>
+      <c r="T38" s="106"/>
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
       <c r="W38" s="40"/>
     </row>
     <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="115">
-        <v>1</v>
-      </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
+      <c r="C39" s="108">
+        <v>1</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="106"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
       <c r="W39" s="40"/>
     </row>
     <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="115">
-        <v>1</v>
-      </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
+      <c r="C40" s="108">
+        <v>1</v>
+      </c>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="106"/>
+      <c r="T40" s="106"/>
+      <c r="U40" s="106"/>
+      <c r="V40" s="106"/>
       <c r="W40" s="40"/>
     </row>
     <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="115">
-        <v>1</v>
-      </c>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
+      <c r="C41" s="108">
+        <v>1</v>
+      </c>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="106"/>
+      <c r="T41" s="106"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
       <c r="W41" s="40"/>
     </row>
     <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="115">
-        <v>1</v>
-      </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
+      <c r="C42" s="108">
+        <v>1</v>
+      </c>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
       <c r="W42" s="40"/>
     </row>
     <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="115">
-        <v>1</v>
-      </c>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
-      <c r="R43" s="112"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
+      <c r="C43" s="108">
+        <v>1</v>
+      </c>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
       <c r="W43" s="40"/>
     </row>
     <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="115">
-        <v>1</v>
-      </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="112"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
+      <c r="C44" s="108">
+        <v>1</v>
+      </c>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
       <c r="W44" s="40"/>
     </row>
     <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="115">
-        <v>1</v>
-      </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
+      <c r="C45" s="108">
+        <v>1</v>
+      </c>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="106"/>
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
       <c r="W45" s="40"/>
     </row>
     <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="119">
-        <v>1</v>
-      </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="123"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
+      <c r="C46" s="112">
+        <v>1</v>
+      </c>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="117"/>
       <c r="W46" s="41"/>
     </row>
     <row r="47" spans="2:23" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5863,127 +5956,127 @@
     <col min="1" max="1" width="4" style="42" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="43" customWidth="1"/>
     <col min="3" max="22" width="7.75" style="42" customWidth="1"/>
-    <col min="23" max="23" width="40.75" style="45" customWidth="1"/>
+    <col min="23" max="23" width="40.75" style="44" customWidth="1"/>
     <col min="24" max="24" width="1.625" style="42" customWidth="1"/>
     <col min="25" max="16384" width="9.125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="X1" s="45" t="s">
+      <c r="X1" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
+    <row r="2" spans="2:26" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="127" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="J2" s="48" t="s">
+      <c r="H2" s="121"/>
+      <c r="J2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="127" t="s">
+      <c r="K2" s="47"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="164">
+      <c r="P2" s="140"/>
+      <c r="Q2" s="155">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>45474</v>
-      </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="52"/>
-    </row>
-    <row r="3" spans="2:26" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="127" t="s">
+        <v>45502</v>
+      </c>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="50"/>
+    </row>
+    <row r="3" spans="2:26" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="121"/>
+      <c r="J3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="179" t="s">
+      <c r="K3" s="47"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="164" t="s">
+      <c r="P3" s="170"/>
+      <c r="Q3" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="52"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="50"/>
     </row>
     <row r="4" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="55"/>
-      <c r="W4" s="131"/>
-      <c r="Z4" s="54"/>
-    </row>
-    <row r="5" spans="2:26" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="175" t="s">
+      <c r="B4" s="52"/>
+      <c r="W4" s="124"/>
+      <c r="Z4" s="51"/>
+    </row>
+    <row r="5" spans="2:26" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="176" t="s">
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="177" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="178" t="s">
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="180" t="s">
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="174" t="s">
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="125"/>
-    </row>
-    <row r="6" spans="2:26" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="174"/>
+      <c r="Z5" s="118"/>
+    </row>
+    <row r="6" spans="2:26" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="165"/>
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
@@ -6044,1128 +6137,1128 @@
       <c r="V6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="174"/>
-      <c r="Z6" s="125"/>
+      <c r="W6" s="165"/>
+      <c r="Z6" s="118"/>
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="87">
-        <v>1</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="133"/>
+      <c r="C7" s="80">
+        <v>1</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="126"/>
     </row>
     <row r="8" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="135">
-        <v>1</v>
-      </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="144"/>
+      <c r="C8" s="128">
+        <v>1</v>
+      </c>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="137"/>
     </row>
     <row r="9" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="135">
-        <v>1</v>
-      </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="144"/>
+      <c r="C9" s="128">
+        <v>1</v>
+      </c>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="137"/>
     </row>
     <row r="10" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="135">
-        <v>1</v>
-      </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="144"/>
+      <c r="C10" s="128">
+        <v>1</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="137"/>
     </row>
     <row r="11" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135">
-        <v>1</v>
-      </c>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128">
+        <v>1</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="137"/>
     </row>
     <row r="12" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="135">
-        <v>1</v>
-      </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="144"/>
+      <c r="C12" s="128">
+        <v>1</v>
+      </c>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="137"/>
     </row>
     <row r="13" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135">
-        <v>1</v>
-      </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="143"/>
-      <c r="W13" s="144"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128">
+        <v>1</v>
+      </c>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="137"/>
     </row>
     <row r="14" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="135">
-        <v>1</v>
-      </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="144"/>
+      <c r="C14" s="128">
+        <v>1</v>
+      </c>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="137"/>
     </row>
     <row r="15" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="135">
-        <v>1</v>
-      </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="144"/>
+      <c r="C15" s="128">
+        <v>1</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="137"/>
     </row>
     <row r="16" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="135">
-        <v>1</v>
-      </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="144"/>
+      <c r="C16" s="128">
+        <v>1</v>
+      </c>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="137"/>
     </row>
     <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="135">
-        <v>1</v>
-      </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="144"/>
+      <c r="C17" s="128">
+        <v>1</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="137"/>
     </row>
     <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="135">
-        <v>1</v>
-      </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="144"/>
+      <c r="C18" s="128">
+        <v>1</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="137"/>
     </row>
     <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="135">
-        <v>1</v>
-      </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="143"/>
-      <c r="W19" s="144"/>
+      <c r="C19" s="128">
+        <v>1</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="137"/>
     </row>
     <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="135">
-        <v>1</v>
-      </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="144"/>
+      <c r="C20" s="128">
+        <v>1</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="137"/>
     </row>
     <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135">
-        <v>1</v>
-      </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="144"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128">
+        <v>1</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="137"/>
     </row>
     <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="135">
-        <v>1</v>
-      </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="143"/>
-      <c r="W22" s="144"/>
+      <c r="C22" s="128">
+        <v>1</v>
+      </c>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="137"/>
     </row>
     <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="135">
-        <v>1</v>
-      </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="144"/>
+      <c r="C23" s="128">
+        <v>1</v>
+      </c>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
     </row>
     <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="135">
-        <v>1</v>
-      </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="143"/>
-      <c r="W24" s="144"/>
+      <c r="C24" s="128">
+        <v>1</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="137"/>
     </row>
     <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="135">
-        <v>1</v>
-      </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="144"/>
+      <c r="C25" s="128">
+        <v>1</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="137"/>
     </row>
     <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="135">
-        <v>1</v>
-      </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="142"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="144"/>
+      <c r="C26" s="128">
+        <v>1</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="137"/>
     </row>
     <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="135">
-        <v>1</v>
-      </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="144"/>
+      <c r="C27" s="128">
+        <v>1</v>
+      </c>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="137"/>
     </row>
     <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="135">
-        <v>1</v>
-      </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="142"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="144"/>
+      <c r="C28" s="128">
+        <v>1</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="137"/>
     </row>
     <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="135">
-        <v>1</v>
-      </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="143"/>
-      <c r="W29" s="144"/>
+      <c r="C29" s="128">
+        <v>1</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="137"/>
     </row>
     <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="135">
-        <v>1</v>
-      </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="144"/>
+      <c r="C30" s="128">
+        <v>1</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="137"/>
     </row>
     <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="135">
-        <v>1</v>
-      </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="143"/>
-      <c r="W31" s="144"/>
+      <c r="C31" s="128">
+        <v>1</v>
+      </c>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="137"/>
     </row>
     <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="135">
-        <v>1</v>
-      </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="143"/>
-      <c r="W32" s="144"/>
+      <c r="C32" s="128">
+        <v>1</v>
+      </c>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="137"/>
     </row>
     <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="134" t="s">
+      <c r="B33" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="135">
-        <v>1</v>
-      </c>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="142"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="143"/>
-      <c r="W33" s="144"/>
+      <c r="C33" s="128">
+        <v>1</v>
+      </c>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="137"/>
     </row>
     <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="135">
-        <v>1</v>
-      </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="143"/>
-      <c r="W34" s="144"/>
+      <c r="C34" s="128">
+        <v>1</v>
+      </c>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="135"/>
+      <c r="T34" s="136"/>
+      <c r="U34" s="136"/>
+      <c r="V34" s="136"/>
+      <c r="W34" s="137"/>
     </row>
     <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="135">
-        <v>1</v>
-      </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="142"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="143"/>
-      <c r="W35" s="144"/>
+      <c r="C35" s="128">
+        <v>1</v>
+      </c>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="134"/>
+      <c r="Q35" s="134"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="135"/>
+      <c r="T35" s="136"/>
+      <c r="U35" s="136"/>
+      <c r="V35" s="136"/>
+      <c r="W35" s="137"/>
     </row>
     <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="135">
-        <v>1</v>
-      </c>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="140"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="141"/>
-      <c r="S36" s="142"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="143"/>
-      <c r="W36" s="144"/>
+      <c r="C36" s="128">
+        <v>1</v>
+      </c>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="134"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="135"/>
+      <c r="T36" s="136"/>
+      <c r="U36" s="136"/>
+      <c r="V36" s="136"/>
+      <c r="W36" s="137"/>
     </row>
     <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="135">
-        <v>1</v>
-      </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="141"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="142"/>
-      <c r="T37" s="143"/>
-      <c r="U37" s="143"/>
-      <c r="V37" s="143"/>
-      <c r="W37" s="144"/>
+      <c r="C37" s="128">
+        <v>1</v>
+      </c>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="135"/>
+      <c r="T37" s="136"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="137"/>
     </row>
     <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="135">
-        <v>1</v>
-      </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="141"/>
-      <c r="Q38" s="141"/>
-      <c r="R38" s="141"/>
-      <c r="S38" s="142"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="144"/>
+      <c r="C38" s="128">
+        <v>1</v>
+      </c>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="135"/>
+      <c r="T38" s="136"/>
+      <c r="U38" s="136"/>
+      <c r="V38" s="136"/>
+      <c r="W38" s="137"/>
     </row>
     <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="135">
-        <v>1</v>
-      </c>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="142"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="143"/>
-      <c r="W39" s="144"/>
+      <c r="C39" s="128">
+        <v>1</v>
+      </c>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="135"/>
+      <c r="T39" s="136"/>
+      <c r="U39" s="136"/>
+      <c r="V39" s="136"/>
+      <c r="W39" s="137"/>
     </row>
     <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="135">
-        <v>1</v>
-      </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="141"/>
-      <c r="Q40" s="141"/>
-      <c r="R40" s="141"/>
-      <c r="S40" s="142"/>
-      <c r="T40" s="143"/>
-      <c r="U40" s="143"/>
-      <c r="V40" s="143"/>
-      <c r="W40" s="144"/>
+      <c r="C40" s="128">
+        <v>1</v>
+      </c>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="134"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="135"/>
+      <c r="T40" s="136"/>
+      <c r="U40" s="136"/>
+      <c r="V40" s="136"/>
+      <c r="W40" s="137"/>
     </row>
     <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="135">
-        <v>1</v>
-      </c>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="139"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="141"/>
-      <c r="S41" s="142"/>
-      <c r="T41" s="143"/>
-      <c r="U41" s="143"/>
-      <c r="V41" s="143"/>
-      <c r="W41" s="144"/>
+      <c r="C41" s="128">
+        <v>1</v>
+      </c>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="133"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="136"/>
+      <c r="U41" s="136"/>
+      <c r="V41" s="136"/>
+      <c r="W41" s="137"/>
     </row>
     <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="134" t="s">
+      <c r="B42" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="135">
-        <v>1</v>
-      </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="141"/>
-      <c r="R42" s="141"/>
-      <c r="S42" s="142"/>
-      <c r="T42" s="143"/>
-      <c r="U42" s="143"/>
-      <c r="V42" s="143"/>
-      <c r="W42" s="144"/>
+      <c r="C42" s="128">
+        <v>1</v>
+      </c>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="133"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="136"/>
+      <c r="U42" s="136"/>
+      <c r="V42" s="136"/>
+      <c r="W42" s="137"/>
     </row>
     <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="135">
-        <v>1</v>
-      </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="140"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="141"/>
-      <c r="R43" s="141"/>
-      <c r="S43" s="142"/>
-      <c r="T43" s="143"/>
-      <c r="U43" s="143"/>
-      <c r="V43" s="143"/>
-      <c r="W43" s="144"/>
+      <c r="C43" s="128">
+        <v>1</v>
+      </c>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="135"/>
+      <c r="T43" s="136"/>
+      <c r="U43" s="136"/>
+      <c r="V43" s="136"/>
+      <c r="W43" s="137"/>
     </row>
     <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="135">
-        <v>1</v>
-      </c>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="141"/>
-      <c r="Q44" s="141"/>
-      <c r="R44" s="141"/>
-      <c r="S44" s="142"/>
-      <c r="T44" s="143"/>
-      <c r="U44" s="143"/>
-      <c r="V44" s="143"/>
-      <c r="W44" s="144"/>
+      <c r="C44" s="128">
+        <v>1</v>
+      </c>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="133"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="135"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="136"/>
+      <c r="V44" s="136"/>
+      <c r="W44" s="137"/>
     </row>
     <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="135">
-        <v>1</v>
-      </c>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="140"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="141"/>
-      <c r="S45" s="142"/>
-      <c r="T45" s="143"/>
-      <c r="U45" s="143"/>
-      <c r="V45" s="143"/>
-      <c r="W45" s="144"/>
+      <c r="C45" s="128">
+        <v>1</v>
+      </c>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="134"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="136"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="137"/>
     </row>
     <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="135">
-        <v>1</v>
-      </c>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="141"/>
-      <c r="Q46" s="141"/>
-      <c r="R46" s="141"/>
-      <c r="S46" s="142"/>
-      <c r="T46" s="143"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="143"/>
-      <c r="W46" s="146"/>
+      <c r="C46" s="128">
+        <v>1</v>
+      </c>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="134"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="134"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="136"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="136"/>
+      <c r="W46" s="139"/>
     </row>
     <row r="47" spans="2:23" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
